--- a/medicine/Enfance/Magali_Ben/Magali_Ben.xlsx
+++ b/medicine/Enfance/Magali_Ben/Magali_Ben.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magali Ben est une illustratrice de livres pour enfants, née le 3 novembre 1980 à Toulouse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Magali Ben est une illustratrice autodidacte. Son travail graphique est très inspiré par l'univers de la forêt et de la nature. Elle réside en Région Occitanie[1],[2],[3],[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Magali Ben est une illustratrice autodidacte. Son travail graphique est très inspiré par l'univers de la forêt et de la nature. Elle réside en Région Occitanie
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Magali Ben a illustré une dizaine d'ouvrages[5],[6],[7]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Magali Ben a illustré une dizaine d'ouvrages
 Un petit bonheur tout rond, Marie-Célie Agnant, Bouton d'Or Acadie, 2019
 Les princesses de Bactriane, (kamishibaï) éd. Kamishibaï, conçu pour le service culturel du musée du Louvre, 2018
 Le trésor de la grotte aux fées, Michèle Simonsen, Rouge Safran, 2018
